--- a/projects/alignment-opti/plots_pub/align-res_summary.xlsx
+++ b/projects/alignment-opti/plots_pub/align-res_summary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/alignment-opti/plots_pub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099004E-40CC-B646-A534-FA6A4683D28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247124B-9AA4-3B4D-9658-748ED44B81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2980" windowWidth="27940" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="2020" windowWidth="27940" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -490,25 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6854F2A0-DAEF-D642-B694-E215BE477833}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -970,6 +964,39 @@
         <f t="shared" si="6"/>
         <v>6.9650455907442774</v>
       </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
